--- a/earlywarning-pom/earlywarning-config/src/baf-instances/19_Action.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/19_Action.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
   <si>
     <t>Operation</t>
   </si>
@@ -258,12 +258,6 @@
   <si>
     <t>claimsanalyst</t>
   </si>
-  <si>
-    <t>administratorProfile</t>
-  </si>
-  <si>
-    <t>productionProfile</t>
-  </si>
 </sst>
 </file>
 
@@ -761,6 +755,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -852,6 +894,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -943,6 +1033,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1034,6 +1172,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1125,6 +1311,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1140,7 +1374,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1183,7 +1417,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1209,6 +1443,54 @@
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
@@ -1300,6 +1582,54 @@
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
@@ -1768,10 +2098,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1804,28 +2134,6 @@
         <v>16</v>
       </c>
       <c r="D2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D2"/>
